--- a/exports/yield_files/LU 5 Early-1.xlsx
+++ b/exports/yield_files/LU 5 Early-1.xlsx
@@ -618,12 +618,18 @@
       <c r="Q2" t="n">
         <v>65.87</v>
       </c>
-      <c r="R2"/>
-      <c r="S2"/>
+      <c r="R2" t="n">
+        <v>1820.6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>16.7</v>
+      </c>
       <c r="T2" t="n">
         <v>1.5</v>
       </c>
-      <c r="U2"/>
+      <c r="U2" t="n">
+        <v>54.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -673,12 +679,18 @@
       <c r="Q3" t="n">
         <v>64.76</v>
       </c>
-      <c r="R3"/>
-      <c r="S3"/>
+      <c r="R3" t="n">
+        <v>1790.9</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16.3</v>
+      </c>
       <c r="T3" t="n">
         <v>1.5</v>
       </c>
-      <c r="U3"/>
+      <c r="U3" t="n">
+        <v>55.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -722,10 +734,16 @@
       <c r="Q4" t="n">
         <v>65.02</v>
       </c>
-      <c r="R4"/>
-      <c r="S4"/>
+      <c r="R4" t="n">
+        <v>1929.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>17.1</v>
+      </c>
       <c r="T4"/>
-      <c r="U4"/>
+      <c r="U4" t="n">
+        <v>54.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -763,7 +781,9 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
+      <c r="R5" t="n">
+        <v>1674.9</v>
+      </c>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
@@ -816,12 +836,18 @@
       <c r="Q6" t="n">
         <v>66.52</v>
       </c>
-      <c r="R6"/>
-      <c r="S6"/>
+      <c r="R6" t="n">
+        <v>1757.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T6" t="n">
         <v>1.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>55.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -871,12 +897,18 @@
       <c r="Q7" t="n">
         <v>66.37</v>
       </c>
-      <c r="R7"/>
-      <c r="S7"/>
+      <c r="R7" t="n">
+        <v>2269.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>14.5</v>
+      </c>
       <c r="T7" t="n">
         <v>1.5</v>
       </c>
-      <c r="U7"/>
+      <c r="U7" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -920,10 +952,16 @@
       <c r="Q8" t="n">
         <v>66.37</v>
       </c>
-      <c r="R8"/>
-      <c r="S8"/>
+      <c r="R8" t="n">
+        <v>1921.3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>14.5</v>
+      </c>
       <c r="T8"/>
-      <c r="U8"/>
+      <c r="U8" t="n">
+        <v>54.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -961,7 +999,9 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
+      <c r="R9" t="n">
+        <v>2125.5</v>
+      </c>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
@@ -1014,12 +1054,18 @@
       <c r="Q10" t="n">
         <v>66.75</v>
       </c>
-      <c r="R10"/>
-      <c r="S10"/>
+      <c r="R10" t="n">
+        <v>2271.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15.2</v>
+      </c>
       <c r="T10" t="n">
         <v>1.5</v>
       </c>
-      <c r="U10"/>
+      <c r="U10" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1069,12 +1115,18 @@
       <c r="Q11" t="n">
         <v>65.63</v>
       </c>
-      <c r="R11"/>
-      <c r="S11"/>
+      <c r="R11" t="n">
+        <v>1766.7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>12.7</v>
+      </c>
       <c r="T11" t="n">
         <v>1.5</v>
       </c>
-      <c r="U11"/>
+      <c r="U11" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1118,10 +1170,16 @@
       <c r="Q12" t="n">
         <v>66.47</v>
       </c>
-      <c r="R12"/>
-      <c r="S12"/>
+      <c r="R12" t="n">
+        <v>2209</v>
+      </c>
+      <c r="S12" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T12"/>
-      <c r="U12"/>
+      <c r="U12" t="n">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1159,7 +1217,9 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
+      <c r="R13" t="n">
+        <v>2220.7</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
@@ -1212,12 +1272,18 @@
       <c r="Q14" t="n">
         <v>64.87</v>
       </c>
-      <c r="R14"/>
-      <c r="S14"/>
+      <c r="R14" t="n">
+        <v>2311.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>15</v>
+      </c>
       <c r="T14" t="n">
         <v>1.5</v>
       </c>
-      <c r="U14"/>
+      <c r="U14" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1267,12 +1333,18 @@
       <c r="Q15" t="n">
         <v>64.79</v>
       </c>
-      <c r="R15"/>
-      <c r="S15"/>
+      <c r="R15" t="n">
+        <v>1910.1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13.6</v>
+      </c>
       <c r="T15" t="n">
         <v>1.5</v>
       </c>
-      <c r="U15"/>
+      <c r="U15" t="n">
+        <v>54.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1316,10 +1388,16 @@
       <c r="Q16" t="n">
         <v>64.59</v>
       </c>
-      <c r="R16"/>
-      <c r="S16"/>
+      <c r="R16" t="n">
+        <v>1574.8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>13.7</v>
+      </c>
       <c r="T16"/>
-      <c r="U16"/>
+      <c r="U16" t="n">
+        <v>55.9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1357,7 +1435,9 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
+      <c r="R17" t="n">
+        <v>2065.1</v>
+      </c>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
@@ -1410,8 +1490,12 @@
       <c r="Q18" t="n">
         <v>65.59</v>
       </c>
-      <c r="R18"/>
-      <c r="S18"/>
+      <c r="R18" t="n">
+        <v>2229.8</v>
+      </c>
+      <c r="S18" t="n">
+        <v>16</v>
+      </c>
       <c r="T18" t="n">
         <v>1.5</v>
       </c>
@@ -1467,8 +1551,12 @@
       <c r="Q19" t="n">
         <v>64.93</v>
       </c>
-      <c r="R19"/>
-      <c r="S19"/>
+      <c r="R19" t="n">
+        <v>1925.3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T19" t="n">
         <v>1.5</v>
       </c>
@@ -1520,8 +1608,12 @@
       <c r="Q20" t="n">
         <v>65.32</v>
       </c>
-      <c r="R20"/>
-      <c r="S20"/>
+      <c r="R20" t="n">
+        <v>2033.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T20"/>
       <c r="U20" t="n">
         <v>56.7</v>
@@ -1563,7 +1655,9 @@
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21"/>
+      <c r="R21" t="n">
+        <v>2222.9</v>
+      </c>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
@@ -1616,8 +1710,12 @@
       <c r="Q22" t="n">
         <v>67.5</v>
       </c>
-      <c r="R22"/>
-      <c r="S22"/>
+      <c r="R22" t="n">
+        <v>2098.9</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15.8</v>
+      </c>
       <c r="T22" t="n">
         <v>1.5</v>
       </c>
@@ -1673,8 +1771,12 @@
       <c r="Q23" t="n">
         <v>66.82</v>
       </c>
-      <c r="R23"/>
-      <c r="S23"/>
+      <c r="R23" t="n">
+        <v>1637.1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15.4</v>
+      </c>
       <c r="T23" t="n">
         <v>1.5</v>
       </c>
@@ -1724,8 +1826,12 @@
       <c r="Q24" t="n">
         <v>67.68</v>
       </c>
-      <c r="R24"/>
-      <c r="S24"/>
+      <c r="R24" t="n">
+        <v>2196.9</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15.9</v>
+      </c>
       <c r="T24"/>
       <c r="U24" t="n">
         <v>56.8</v>
@@ -1767,7 +1873,9 @@
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25"/>
+      <c r="R25" t="n">
+        <v>1941.9</v>
+      </c>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
@@ -1820,12 +1928,18 @@
       <c r="Q26" t="n">
         <v>67.37</v>
       </c>
-      <c r="R26"/>
-      <c r="S26"/>
+      <c r="R26" t="n">
+        <v>1957</v>
+      </c>
+      <c r="S26" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T26" t="n">
         <v>2</v>
       </c>
-      <c r="U26"/>
+      <c r="U26" t="n">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1875,12 +1989,18 @@
       <c r="Q27" t="n">
         <v>66.28</v>
       </c>
-      <c r="R27"/>
-      <c r="S27"/>
+      <c r="R27" t="n">
+        <v>1702</v>
+      </c>
+      <c r="S27" t="n">
+        <v>14.4</v>
+      </c>
       <c r="T27" t="n">
         <v>2</v>
       </c>
-      <c r="U27"/>
+      <c r="U27" t="n">
+        <v>54.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1924,10 +2044,16 @@
       <c r="Q28" t="n">
         <v>66.49</v>
       </c>
-      <c r="R28"/>
-      <c r="S28"/>
+      <c r="R28" t="n">
+        <v>1605.9</v>
+      </c>
+      <c r="S28" t="n">
+        <v>13.9</v>
+      </c>
       <c r="T28"/>
-      <c r="U28"/>
+      <c r="U28" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1965,7 +2091,9 @@
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
+      <c r="R29" t="n">
+        <v>1887.8</v>
+      </c>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -2018,8 +2146,12 @@
       <c r="Q30" t="n">
         <v>65.45</v>
       </c>
-      <c r="R30"/>
-      <c r="S30"/>
+      <c r="R30" t="n">
+        <v>1830.9</v>
+      </c>
+      <c r="S30" t="n">
+        <v>13.5</v>
+      </c>
       <c r="T30" t="n">
         <v>1.5</v>
       </c>
@@ -2073,8 +2205,12 @@
       <c r="Q31" t="n">
         <v>66.31</v>
       </c>
-      <c r="R31"/>
-      <c r="S31"/>
+      <c r="R31" t="n">
+        <v>1729.7</v>
+      </c>
+      <c r="S31" t="n">
+        <v>13.4</v>
+      </c>
       <c r="T31" t="n">
         <v>2</v>
       </c>
@@ -2122,8 +2258,12 @@
       <c r="Q32" t="n">
         <v>64.81</v>
       </c>
-      <c r="R32"/>
-      <c r="S32"/>
+      <c r="R32" t="n">
+        <v>1855.6</v>
+      </c>
+      <c r="S32" t="n">
+        <v>13.9</v>
+      </c>
       <c r="T32"/>
       <c r="U32"/>
     </row>
@@ -2163,7 +2303,9 @@
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33"/>
+      <c r="R33" t="n">
+        <v>1463.3</v>
+      </c>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
@@ -2216,8 +2358,12 @@
       <c r="Q34" t="n">
         <v>64.2</v>
       </c>
-      <c r="R34"/>
-      <c r="S34"/>
+      <c r="R34" t="n">
+        <v>2129.9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>12.5</v>
+      </c>
       <c r="T34" t="n">
         <v>1.5</v>
       </c>
@@ -2273,8 +2419,12 @@
       <c r="Q35" t="n">
         <v>63.83</v>
       </c>
-      <c r="R35"/>
-      <c r="S35"/>
+      <c r="R35" t="n">
+        <v>2166.6</v>
+      </c>
+      <c r="S35" t="n">
+        <v>12.5</v>
+      </c>
       <c r="T35" t="n">
         <v>1.5</v>
       </c>
@@ -2324,8 +2474,12 @@
       <c r="Q36" t="n">
         <v>64.04</v>
       </c>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="R36" t="n">
+        <v>2050.6</v>
+      </c>
+      <c r="S36" t="n">
+        <v>13</v>
+      </c>
       <c r="T36"/>
       <c r="U36" t="n">
         <v>57.1</v>
@@ -2367,7 +2521,9 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37"/>
+      <c r="R37" t="n">
+        <v>2257.1</v>
+      </c>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
@@ -2420,8 +2576,12 @@
       <c r="Q38" t="n">
         <v>65.63</v>
       </c>
-      <c r="R38"/>
-      <c r="S38"/>
+      <c r="R38" t="n">
+        <v>1686.9</v>
+      </c>
+      <c r="S38" t="n">
+        <v>12.8</v>
+      </c>
       <c r="T38" t="n">
         <v>1.5</v>
       </c>
@@ -2477,8 +2637,12 @@
       <c r="Q39" t="n">
         <v>64.88</v>
       </c>
-      <c r="R39"/>
-      <c r="S39"/>
+      <c r="R39" t="n">
+        <v>1982.8</v>
+      </c>
+      <c r="S39" t="n">
+        <v>12.6</v>
+      </c>
       <c r="T39" t="n">
         <v>1.5</v>
       </c>
@@ -2530,8 +2694,12 @@
       <c r="Q40" t="n">
         <v>64.04</v>
       </c>
-      <c r="R40"/>
-      <c r="S40"/>
+      <c r="R40" t="n">
+        <v>2209</v>
+      </c>
+      <c r="S40" t="n">
+        <v>12.4</v>
+      </c>
       <c r="T40"/>
       <c r="U40" t="n">
         <v>56.1</v>
@@ -2573,7 +2741,9 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
+      <c r="R41" t="n">
+        <v>1945.7</v>
+      </c>
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41"/>
@@ -2626,8 +2796,12 @@
       <c r="Q42" t="n">
         <v>64.69</v>
       </c>
-      <c r="R42"/>
-      <c r="S42"/>
+      <c r="R42" t="n">
+        <v>2351.8</v>
+      </c>
+      <c r="S42" t="n">
+        <v>14.3</v>
+      </c>
       <c r="T42" t="n">
         <v>1.5</v>
       </c>
@@ -2683,8 +2857,12 @@
       <c r="Q43" t="n">
         <v>64.88</v>
       </c>
-      <c r="R43"/>
-      <c r="S43"/>
+      <c r="R43" t="n">
+        <v>2234.1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>13.7</v>
+      </c>
       <c r="T43" t="n">
         <v>1.5</v>
       </c>
@@ -2734,8 +2912,12 @@
       <c r="Q44" t="n">
         <v>64.34</v>
       </c>
-      <c r="R44"/>
-      <c r="S44"/>
+      <c r="R44" t="n">
+        <v>1814.4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13.1</v>
+      </c>
       <c r="T44"/>
       <c r="U44" t="n">
         <v>56.7</v>
@@ -2777,7 +2959,9 @@
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
+      <c r="R45" t="n">
+        <v>2120.6</v>
+      </c>
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45"/>
@@ -2830,8 +3014,12 @@
       <c r="Q46" t="n">
         <v>66.02</v>
       </c>
-      <c r="R46"/>
-      <c r="S46"/>
+      <c r="R46" t="n">
+        <v>2193.4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>15.2</v>
+      </c>
       <c r="T46" t="n">
         <v>1.5</v>
       </c>
@@ -2887,8 +3075,12 @@
       <c r="Q47" t="n">
         <v>65.17</v>
       </c>
-      <c r="R47"/>
-      <c r="S47"/>
+      <c r="R47" t="n">
+        <v>1816.3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>13.7</v>
+      </c>
       <c r="T47" t="n">
         <v>2</v>
       </c>
@@ -2938,8 +3130,12 @@
       <c r="Q48" t="n">
         <v>65.17</v>
       </c>
-      <c r="R48"/>
-      <c r="S48"/>
+      <c r="R48" t="n">
+        <v>1534.4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>12.8</v>
+      </c>
       <c r="T48"/>
       <c r="U48" t="n">
         <v>57</v>
@@ -2981,7 +3177,9 @@
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
+      <c r="R49" t="n">
+        <v>2215.3</v>
+      </c>
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49"/>
@@ -3034,8 +3232,12 @@
       <c r="Q50" t="n">
         <v>66.22</v>
       </c>
-      <c r="R50"/>
-      <c r="S50"/>
+      <c r="R50" t="n">
+        <v>1653.2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>15.1</v>
+      </c>
       <c r="T50" t="n">
         <v>1.5</v>
       </c>
@@ -3091,8 +3293,12 @@
       <c r="Q51" t="n">
         <v>66.46</v>
       </c>
-      <c r="R51"/>
-      <c r="S51"/>
+      <c r="R51" t="n">
+        <v>2153.2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>14</v>
+      </c>
       <c r="T51" t="n">
         <v>1.5</v>
       </c>
@@ -3142,8 +3348,12 @@
       <c r="Q52" t="n">
         <v>66.19</v>
       </c>
-      <c r="R52"/>
-      <c r="S52"/>
+      <c r="R52" t="n">
+        <v>1847.5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>15.1</v>
+      </c>
       <c r="T52"/>
       <c r="U52" t="n">
         <v>57.4</v>
@@ -3185,7 +3395,9 @@
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
+      <c r="R53" t="n">
+        <v>2112.3</v>
+      </c>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53"/>
@@ -3238,8 +3450,12 @@
       <c r="Q54" t="n">
         <v>65.69</v>
       </c>
-      <c r="R54"/>
-      <c r="S54"/>
+      <c r="R54" t="n">
+        <v>2200.8</v>
+      </c>
+      <c r="S54" t="n">
+        <v>13</v>
+      </c>
       <c r="T54" t="n">
         <v>2</v>
       </c>
@@ -3295,8 +3511,12 @@
       <c r="Q55" t="n">
         <v>65.46</v>
       </c>
-      <c r="R55"/>
-      <c r="S55"/>
+      <c r="R55" t="n">
+        <v>2408.8</v>
+      </c>
+      <c r="S55" t="n">
+        <v>13.4</v>
+      </c>
       <c r="T55" t="n">
         <v>2</v>
       </c>
@@ -3346,8 +3566,12 @@
       <c r="Q56" t="n">
         <v>66.18</v>
       </c>
-      <c r="R56"/>
-      <c r="S56"/>
+      <c r="R56" t="n">
+        <v>1777.4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>14.1</v>
+      </c>
       <c r="T56"/>
       <c r="U56" t="n">
         <v>57.3</v>
@@ -3389,7 +3613,9 @@
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57"/>
+      <c r="R57" t="n">
+        <v>2007</v>
+      </c>
       <c r="S57"/>
       <c r="T57"/>
       <c r="U57"/>
@@ -3442,8 +3668,12 @@
       <c r="Q58" t="n">
         <v>66.24</v>
       </c>
-      <c r="R58"/>
-      <c r="S58"/>
+      <c r="R58" t="n">
+        <v>2009.7</v>
+      </c>
+      <c r="S58" t="n">
+        <v>12.7</v>
+      </c>
       <c r="T58" t="n">
         <v>1.5</v>
       </c>
@@ -3499,8 +3729,12 @@
       <c r="Q59" t="n">
         <v>65.43</v>
       </c>
-      <c r="R59"/>
-      <c r="S59"/>
+      <c r="R59" t="n">
+        <v>2018</v>
+      </c>
+      <c r="S59" t="n">
+        <v>12</v>
+      </c>
       <c r="T59" t="n">
         <v>1.5</v>
       </c>
@@ -3544,8 +3778,12 @@
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
+      <c r="R60" t="n">
+        <v>1863.4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>12</v>
+      </c>
       <c r="T60"/>
       <c r="U60" t="n">
         <v>56.5</v>
@@ -3587,7 +3825,9 @@
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61"/>
+      <c r="R61" t="n">
+        <v>1879.5</v>
+      </c>
       <c r="S61"/>
       <c r="T61"/>
       <c r="U61"/>
@@ -3640,8 +3880,12 @@
       <c r="Q62" t="n">
         <v>65.78</v>
       </c>
-      <c r="R62"/>
-      <c r="S62"/>
+      <c r="R62" t="n">
+        <v>1999.4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>13.8</v>
+      </c>
       <c r="T62" t="n">
         <v>1.5</v>
       </c>
@@ -3697,8 +3941,12 @@
       <c r="Q63" t="n">
         <v>64.03</v>
       </c>
-      <c r="R63"/>
-      <c r="S63"/>
+      <c r="R63" t="n">
+        <v>2045.9</v>
+      </c>
+      <c r="S63" t="n">
+        <v>13.1</v>
+      </c>
       <c r="T63" t="n">
         <v>1.5</v>
       </c>
@@ -3748,8 +3996,12 @@
       <c r="Q64" t="n">
         <v>64.42</v>
       </c>
-      <c r="R64"/>
-      <c r="S64"/>
+      <c r="R64" t="n">
+        <v>1807.8</v>
+      </c>
+      <c r="S64" t="n">
+        <v>12</v>
+      </c>
       <c r="T64"/>
       <c r="U64" t="n">
         <v>55.6</v>
@@ -3791,7 +4043,9 @@
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65"/>
+      <c r="R65" t="n">
+        <v>1921.8</v>
+      </c>
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65"/>
@@ -3844,8 +4098,12 @@
       <c r="Q66" t="n">
         <v>66.14</v>
       </c>
-      <c r="R66"/>
-      <c r="S66"/>
+      <c r="R66" t="n">
+        <v>2260.8</v>
+      </c>
+      <c r="S66" t="n">
+        <v>12.6</v>
+      </c>
       <c r="T66" t="n">
         <v>1.5</v>
       </c>
@@ -3901,8 +4159,12 @@
       <c r="Q67" t="n">
         <v>64.99</v>
       </c>
-      <c r="R67"/>
-      <c r="S67"/>
+      <c r="R67" t="n">
+        <v>1738.8</v>
+      </c>
+      <c r="S67" t="n">
+        <v>11.9</v>
+      </c>
       <c r="T67" t="n">
         <v>1.5</v>
       </c>
@@ -3952,8 +4214,12 @@
       <c r="Q68" t="n">
         <v>65.35</v>
       </c>
-      <c r="R68"/>
-      <c r="S68"/>
+      <c r="R68" t="n">
+        <v>2280.2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>12.1</v>
+      </c>
       <c r="T68"/>
       <c r="U68" t="n">
         <v>54.7</v>
@@ -3995,7 +4261,9 @@
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69"/>
+      <c r="R69" t="n">
+        <v>1751.2</v>
+      </c>
       <c r="S69"/>
       <c r="T69"/>
       <c r="U69"/>
@@ -4048,8 +4316,12 @@
       <c r="Q70" t="n">
         <v>65.16</v>
       </c>
-      <c r="R70"/>
-      <c r="S70"/>
+      <c r="R70" t="n">
+        <v>1026.2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>11.9</v>
+      </c>
       <c r="T70" t="n">
         <v>1.5</v>
       </c>
@@ -4105,8 +4377,12 @@
       <c r="Q71" t="n">
         <v>65.38</v>
       </c>
-      <c r="R71"/>
-      <c r="S71"/>
+      <c r="R71" t="n">
+        <v>2025.1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>12.3</v>
+      </c>
       <c r="T71" t="n">
         <v>1.5</v>
       </c>
@@ -4156,8 +4432,12 @@
       <c r="Q72" t="n">
         <v>65.03</v>
       </c>
-      <c r="R72"/>
-      <c r="S72"/>
+      <c r="R72" t="n">
+        <v>2170.4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>11.5</v>
+      </c>
       <c r="T72"/>
       <c r="U72" t="n">
         <v>56.6</v>
@@ -4199,7 +4479,9 @@
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73"/>
+      <c r="R73" t="n">
+        <v>2450.8</v>
+      </c>
       <c r="S73"/>
       <c r="T73"/>
       <c r="U73"/>
@@ -4252,8 +4534,12 @@
       <c r="Q74" t="n">
         <v>64.77</v>
       </c>
-      <c r="R74"/>
-      <c r="S74"/>
+      <c r="R74" t="n">
+        <v>2375</v>
+      </c>
+      <c r="S74" t="n">
+        <v>15.4</v>
+      </c>
       <c r="T74" t="n">
         <v>1.5</v>
       </c>
@@ -4309,8 +4595,12 @@
       <c r="Q75" t="n">
         <v>64.31</v>
       </c>
-      <c r="R75"/>
-      <c r="S75"/>
+      <c r="R75" t="n">
+        <v>2135.3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T75" t="n">
         <v>1.5</v>
       </c>
@@ -4360,8 +4650,12 @@
       <c r="Q76" t="n">
         <v>65.72</v>
       </c>
-      <c r="R76"/>
-      <c r="S76"/>
+      <c r="R76" t="n">
+        <v>2410.8</v>
+      </c>
+      <c r="S76" t="n">
+        <v>15</v>
+      </c>
       <c r="T76"/>
       <c r="U76" t="n">
         <v>56.6</v>
@@ -4403,7 +4697,9 @@
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77"/>
+      <c r="R77" t="n">
+        <v>2438.8</v>
+      </c>
       <c r="S77"/>
       <c r="T77"/>
       <c r="U77"/>
@@ -4456,8 +4752,12 @@
       <c r="Q78" t="n">
         <v>66.17</v>
       </c>
-      <c r="R78"/>
-      <c r="S78"/>
+      <c r="R78" t="n">
+        <v>2075.9</v>
+      </c>
+      <c r="S78" t="n">
+        <v>15.2</v>
+      </c>
       <c r="T78" t="n">
         <v>1.5</v>
       </c>
@@ -4513,8 +4813,12 @@
       <c r="Q79" t="n">
         <v>66.75</v>
       </c>
-      <c r="R79"/>
-      <c r="S79"/>
+      <c r="R79" t="n">
+        <v>2075.9</v>
+      </c>
+      <c r="S79" t="n">
+        <v>15.2</v>
+      </c>
       <c r="T79" t="n">
         <v>1.5</v>
       </c>
@@ -4570,8 +4874,12 @@
       <c r="Q80" t="n">
         <v>65.12</v>
       </c>
-      <c r="R80"/>
-      <c r="S80"/>
+      <c r="R80" t="n">
+        <v>2388.1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>13.5</v>
+      </c>
       <c r="T80" t="n">
         <v>1.5</v>
       </c>
@@ -4621,8 +4929,12 @@
       <c r="Q81" t="n">
         <v>66.78</v>
       </c>
-      <c r="R81"/>
-      <c r="S81"/>
+      <c r="R81" t="n">
+        <v>2079.5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>14.3</v>
+      </c>
       <c r="T81"/>
       <c r="U81" t="n">
         <v>55.7</v>
@@ -4664,7 +4976,9 @@
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82"/>
+      <c r="R82" t="n">
+        <v>2128.6</v>
+      </c>
       <c r="S82"/>
       <c r="T82"/>
       <c r="U82"/>
@@ -4717,8 +5031,12 @@
       <c r="Q83" t="n">
         <v>68.2</v>
       </c>
-      <c r="R83"/>
-      <c r="S83"/>
+      <c r="R83" t="n">
+        <v>2187</v>
+      </c>
+      <c r="S83" t="n">
+        <v>15.2</v>
+      </c>
       <c r="T83" t="n">
         <v>1.5</v>
       </c>
@@ -4774,8 +5092,12 @@
       <c r="Q84" t="n">
         <v>67.74</v>
       </c>
-      <c r="R84"/>
-      <c r="S84"/>
+      <c r="R84" t="n">
+        <v>1928.5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T84" t="n">
         <v>1.5</v>
       </c>
@@ -4825,8 +5147,12 @@
       <c r="Q85" t="n">
         <v>67.45</v>
       </c>
-      <c r="R85"/>
-      <c r="S85"/>
+      <c r="R85" t="n">
+        <v>2110.8</v>
+      </c>
+      <c r="S85" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T85"/>
       <c r="U85" t="n">
         <v>56.1</v>
@@ -4868,7 +5194,9 @@
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
-      <c r="R86"/>
+      <c r="R86" t="n">
+        <v>2223</v>
+      </c>
       <c r="S86"/>
       <c r="T86"/>
       <c r="U86"/>
@@ -4921,8 +5249,12 @@
       <c r="Q87" t="n">
         <v>63.68</v>
       </c>
-      <c r="R87"/>
-      <c r="S87"/>
+      <c r="R87" t="n">
+        <v>2181</v>
+      </c>
+      <c r="S87" t="n">
+        <v>13.9</v>
+      </c>
       <c r="T87" t="n">
         <v>1.5</v>
       </c>
@@ -4978,8 +5310,12 @@
       <c r="Q88" t="n">
         <v>63.38</v>
       </c>
-      <c r="R88"/>
-      <c r="S88"/>
+      <c r="R88" t="n">
+        <v>2042.5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>12.5</v>
+      </c>
       <c r="T88" t="n">
         <v>1.5</v>
       </c>
@@ -5029,8 +5365,12 @@
       <c r="Q89" t="n">
         <v>63.39</v>
       </c>
-      <c r="R89"/>
-      <c r="S89"/>
+      <c r="R89" t="n">
+        <v>2173</v>
+      </c>
+      <c r="S89" t="n">
+        <v>12.5</v>
+      </c>
       <c r="T89"/>
       <c r="U89" t="n">
         <v>55.4</v>
@@ -5072,7 +5412,9 @@
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
-      <c r="R90"/>
+      <c r="R90" t="n">
+        <v>2470</v>
+      </c>
       <c r="S90"/>
       <c r="T90"/>
       <c r="U90"/>
@@ -5125,8 +5467,12 @@
       <c r="Q91" t="n">
         <v>65.49</v>
       </c>
-      <c r="R91"/>
-      <c r="S91"/>
+      <c r="R91" t="n">
+        <v>1992.7</v>
+      </c>
+      <c r="S91" t="n">
+        <v>11.4</v>
+      </c>
       <c r="T91" t="n">
         <v>1.5</v>
       </c>
@@ -5182,8 +5528,12 @@
       <c r="Q92" t="n">
         <v>64.43</v>
       </c>
-      <c r="R92"/>
-      <c r="S92"/>
+      <c r="R92" t="n">
+        <v>2122.3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>11.1</v>
+      </c>
       <c r="T92" t="n">
         <v>1.5</v>
       </c>
@@ -5233,8 +5583,12 @@
       <c r="Q93" t="n">
         <v>64.17</v>
       </c>
-      <c r="R93"/>
-      <c r="S93"/>
+      <c r="R93" t="n">
+        <v>2191.5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>11.4</v>
+      </c>
       <c r="T93"/>
       <c r="U93" t="n">
         <v>56.4</v>
@@ -5276,7 +5630,9 @@
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
-      <c r="R94"/>
+      <c r="R94" t="n">
+        <v>2517.7</v>
+      </c>
       <c r="S94"/>
       <c r="T94"/>
       <c r="U94"/>
@@ -5329,8 +5685,12 @@
       <c r="Q95" t="n">
         <v>65.11</v>
       </c>
-      <c r="R95"/>
-      <c r="S95"/>
+      <c r="R95" t="n">
+        <v>1920.7</v>
+      </c>
+      <c r="S95" t="n">
+        <v>15.2</v>
+      </c>
       <c r="T95" t="n">
         <v>1.5</v>
       </c>
@@ -5380,8 +5740,12 @@
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
-      <c r="R96"/>
-      <c r="S96"/>
+      <c r="R96" t="n">
+        <v>1726.2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>14</v>
+      </c>
       <c r="T96" t="n">
         <v>1.5</v>
       </c>
@@ -5431,8 +5795,12 @@
       <c r="Q97" t="n">
         <v>65.39</v>
       </c>
-      <c r="R97"/>
-      <c r="S97"/>
+      <c r="R97" t="n">
+        <v>2009</v>
+      </c>
+      <c r="S97" t="n">
+        <v>13.9</v>
+      </c>
       <c r="T97"/>
       <c r="U97" t="n">
         <v>56.2</v>
@@ -5474,7 +5842,9 @@
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
-      <c r="R98"/>
+      <c r="R98" t="n">
+        <v>2234</v>
+      </c>
       <c r="S98"/>
       <c r="T98"/>
       <c r="U98"/>
@@ -5527,8 +5897,12 @@
       <c r="Q99" t="n">
         <v>64.31</v>
       </c>
-      <c r="R99"/>
-      <c r="S99"/>
+      <c r="R99" t="n">
+        <v>2279.7</v>
+      </c>
+      <c r="S99" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T99" t="n">
         <v>2</v>
       </c>
@@ -5584,8 +5958,12 @@
       <c r="Q100" t="n">
         <v>64.86</v>
       </c>
-      <c r="R100"/>
-      <c r="S100"/>
+      <c r="R100" t="n">
+        <v>2028.6</v>
+      </c>
+      <c r="S100" t="n">
+        <v>11.4</v>
+      </c>
       <c r="T100" t="n">
         <v>2</v>
       </c>
@@ -5635,8 +6013,12 @@
       <c r="Q101" t="n">
         <v>63.72</v>
       </c>
-      <c r="R101"/>
-      <c r="S101"/>
+      <c r="R101" t="n">
+        <v>1797.5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>11.3</v>
+      </c>
       <c r="T101"/>
       <c r="U101" t="n">
         <v>58</v>
@@ -5678,7 +6060,9 @@
       <c r="O102"/>
       <c r="P102"/>
       <c r="Q102"/>
-      <c r="R102"/>
+      <c r="R102" t="n">
+        <v>2036.3</v>
+      </c>
       <c r="S102"/>
       <c r="T102"/>
       <c r="U102"/>

--- a/exports/yield_files/LU 5 Early-1.xlsx
+++ b/exports/yield_files/LU 5 Early-1.xlsx
@@ -4782,10 +4782,10 @@
         <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
@@ -4799,31 +4799,31 @@
         <v>27</v>
       </c>
       <c r="M79" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N79" t="n">
         <v>1.5</v>
       </c>
       <c r="O79" t="n">
-        <v>21.48</v>
+        <v>21.25</v>
       </c>
       <c r="P79" t="n">
-        <v>45.27</v>
+        <v>43.87</v>
       </c>
       <c r="Q79" t="n">
-        <v>66.75</v>
+        <v>65.12</v>
       </c>
       <c r="R79" t="n">
-        <v>2075.9</v>
+        <v>2388.1</v>
       </c>
       <c r="S79" t="n">
-        <v>15.2</v>
+        <v>13.5</v>
       </c>
       <c r="T79" t="n">
         <v>1.5</v>
       </c>
       <c r="U79" t="n">
-        <v>57.6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80">
@@ -4843,48 +4843,40 @@
         <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80" t="n">
-        <v>4</v>
-      </c>
+      <c r="J80"/>
       <c r="K80" t="s">
         <v>31</v>
       </c>
       <c r="L80" t="s">
         <v>27</v>
       </c>
-      <c r="M80" t="n">
-        <v>31</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M80"/>
+      <c r="N80"/>
       <c r="O80" t="n">
-        <v>21.25</v>
+        <v>22.72</v>
       </c>
       <c r="P80" t="n">
-        <v>43.87</v>
+        <v>44.06</v>
       </c>
       <c r="Q80" t="n">
-        <v>65.12</v>
+        <v>66.78</v>
       </c>
       <c r="R80" t="n">
-        <v>2388.1</v>
+        <v>2079.5</v>
       </c>
       <c r="S80" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.5</v>
-      </c>
+        <v>14.3</v>
+      </c>
+      <c r="T80"/>
       <c r="U80" t="n">
-        <v>58</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="81">
@@ -4904,10 +4896,10 @@
         <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
@@ -4920,25 +4912,15 @@
       </c>
       <c r="M81"/>
       <c r="N81"/>
-      <c r="O81" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="P81" t="n">
-        <v>44.06</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>66.78</v>
-      </c>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
       <c r="R81" t="n">
-        <v>2079.5</v>
-      </c>
-      <c r="S81" t="n">
-        <v>14.3</v>
-      </c>
+        <v>2128.6</v>
+      </c>
+      <c r="S81"/>
       <c r="T81"/>
-      <c r="U81" t="n">
-        <v>55.7</v>
-      </c>
+      <c r="U81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -4951,37 +4933,55 @@
         <v>2021</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
-      <c r="J82"/>
+      <c r="J82" t="n">
+        <v>4</v>
+      </c>
       <c r="K82" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s">
         <v>27</v>
       </c>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
+      <c r="M82" t="n">
+        <v>28</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="P82" t="n">
+        <v>45.95</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>68.2</v>
+      </c>
       <c r="R82" t="n">
-        <v>2128.6</v>
-      </c>
-      <c r="S82"/>
-      <c r="T82"/>
-      <c r="U82"/>
+        <v>2187</v>
+      </c>
+      <c r="S82" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U82" t="n">
+        <v>55.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -5000,10 +5000,10 @@
         <v>21</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
@@ -5017,31 +5017,31 @@
         <v>27</v>
       </c>
       <c r="M83" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N83" t="n">
         <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>22.25</v>
+        <v>22.21</v>
       </c>
       <c r="P83" t="n">
-        <v>45.95</v>
+        <v>45.53</v>
       </c>
       <c r="Q83" t="n">
-        <v>68.2</v>
+        <v>67.74</v>
       </c>
       <c r="R83" t="n">
-        <v>2187</v>
+        <v>1928.5</v>
       </c>
       <c r="S83" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="T83" t="n">
         <v>1.5</v>
       </c>
       <c r="U83" t="n">
-        <v>55.2</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="84">
@@ -5061,48 +5061,40 @@
         <v>21</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
-      <c r="J84" t="n">
-        <v>4</v>
-      </c>
+      <c r="J84"/>
       <c r="K84" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="s">
         <v>27</v>
       </c>
-      <c r="M84" t="n">
-        <v>39</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1</v>
-      </c>
+      <c r="M84"/>
+      <c r="N84"/>
       <c r="O84" t="n">
-        <v>22.21</v>
+        <v>22.01</v>
       </c>
       <c r="P84" t="n">
-        <v>45.53</v>
+        <v>45.44</v>
       </c>
       <c r="Q84" t="n">
-        <v>67.74</v>
+        <v>67.45</v>
       </c>
       <c r="R84" t="n">
-        <v>1928.5</v>
+        <v>2110.8</v>
       </c>
       <c r="S84" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="T84" t="n">
-        <v>1.5</v>
-      </c>
+        <v>14.6</v>
+      </c>
+      <c r="T84"/>
       <c r="U84" t="n">
-        <v>55.8</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="85">
@@ -5122,10 +5114,10 @@
         <v>21</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
@@ -5138,25 +5130,15 @@
       </c>
       <c r="M85"/>
       <c r="N85"/>
-      <c r="O85" t="n">
-        <v>22.01</v>
-      </c>
-      <c r="P85" t="n">
-        <v>45.44</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>67.45</v>
-      </c>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
       <c r="R85" t="n">
-        <v>2110.8</v>
-      </c>
-      <c r="S85" t="n">
-        <v>14.6</v>
-      </c>
+        <v>2223</v>
+      </c>
+      <c r="S85"/>
       <c r="T85"/>
-      <c r="U85" t="n">
-        <v>56.1</v>
-      </c>
+      <c r="U85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -5169,37 +5151,55 @@
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E86" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
-      <c r="J86"/>
+      <c r="J86" t="n">
+        <v>10</v>
+      </c>
       <c r="K86" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L86" t="s">
-        <v>27</v>
-      </c>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
+        <v>25</v>
+      </c>
+      <c r="M86" t="n">
+        <v>29</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="P86" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>63.68</v>
+      </c>
       <c r="R86" t="n">
-        <v>2223</v>
-      </c>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
+        <v>2181</v>
+      </c>
+      <c r="S86" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U86" t="n">
+        <v>55.3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -5218,15 +5218,15 @@
         <v>22</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K87" t="s">
         <v>31</v>
@@ -5241,25 +5241,25 @@
         <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>21.14</v>
+        <v>21.44</v>
       </c>
       <c r="P87" t="n">
-        <v>42.54</v>
+        <v>41.94</v>
       </c>
       <c r="Q87" t="n">
-        <v>63.68</v>
+        <v>63.38</v>
       </c>
       <c r="R87" t="n">
-        <v>2181</v>
+        <v>2042.5</v>
       </c>
       <c r="S87" t="n">
-        <v>13.9</v>
+        <v>12.5</v>
       </c>
       <c r="T87" t="n">
         <v>1.5</v>
       </c>
       <c r="U87" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="88">
@@ -5279,48 +5279,40 @@
         <v>22</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
-      <c r="J88" t="n">
-        <v>7</v>
-      </c>
+      <c r="J88"/>
       <c r="K88" t="s">
         <v>31</v>
       </c>
       <c r="L88" t="s">
         <v>25</v>
       </c>
-      <c r="M88" t="n">
-        <v>29</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
+      <c r="M88"/>
+      <c r="N88"/>
       <c r="O88" t="n">
-        <v>21.44</v>
+        <v>21.68</v>
       </c>
       <c r="P88" t="n">
-        <v>41.94</v>
+        <v>41.71</v>
       </c>
       <c r="Q88" t="n">
-        <v>63.38</v>
+        <v>63.39</v>
       </c>
       <c r="R88" t="n">
-        <v>2042.5</v>
+        <v>2173</v>
       </c>
       <c r="S88" t="n">
         <v>12.5</v>
       </c>
-      <c r="T88" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="T88"/>
       <c r="U88" t="n">
-        <v>55.9</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="89">
@@ -5340,10 +5332,10 @@
         <v>22</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
@@ -5356,25 +5348,15 @@
       </c>
       <c r="M89"/>
       <c r="N89"/>
-      <c r="O89" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="P89" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>63.39</v>
-      </c>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
       <c r="R89" t="n">
-        <v>2173</v>
-      </c>
-      <c r="S89" t="n">
-        <v>12.5</v>
-      </c>
+        <v>2470</v>
+      </c>
+      <c r="S89"/>
       <c r="T89"/>
-      <c r="U89" t="n">
-        <v>55.4</v>
-      </c>
+      <c r="U89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -5387,37 +5369,55 @@
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
-      <c r="J90"/>
+      <c r="J90" t="n">
+        <v>3</v>
+      </c>
       <c r="K90" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L90" t="s">
         <v>25</v>
       </c>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+      <c r="M90" t="n">
+        <v>32</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="P90" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>65.49</v>
+      </c>
       <c r="R90" t="n">
-        <v>2470</v>
-      </c>
-      <c r="S90"/>
-      <c r="T90"/>
-      <c r="U90"/>
+        <v>1992.7</v>
+      </c>
+      <c r="S90" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U90" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -5436,15 +5436,15 @@
         <v>23</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K91" t="s">
         <v>24</v>
@@ -5453,31 +5453,31 @@
         <v>25</v>
       </c>
       <c r="M91" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N91" t="n">
         <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>21.33</v>
+        <v>22.19</v>
       </c>
       <c r="P91" t="n">
-        <v>44.16</v>
+        <v>42.24</v>
       </c>
       <c r="Q91" t="n">
-        <v>65.49</v>
+        <v>64.43</v>
       </c>
       <c r="R91" t="n">
-        <v>1992.7</v>
+        <v>2122.3</v>
       </c>
       <c r="S91" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="T91" t="n">
         <v>1.5</v>
       </c>
       <c r="U91" t="n">
-        <v>56.5</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="92">
@@ -5497,48 +5497,40 @@
         <v>23</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
-      <c r="J92" t="n">
-        <v>4</v>
-      </c>
+      <c r="J92"/>
       <c r="K92" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="s">
         <v>25</v>
       </c>
-      <c r="M92" t="n">
-        <v>31</v>
-      </c>
-      <c r="N92" t="n">
-        <v>1</v>
-      </c>
+      <c r="M92"/>
+      <c r="N92"/>
       <c r="O92" t="n">
-        <v>22.19</v>
+        <v>21.52</v>
       </c>
       <c r="P92" t="n">
-        <v>42.24</v>
+        <v>42.65</v>
       </c>
       <c r="Q92" t="n">
-        <v>64.43</v>
+        <v>64.17</v>
       </c>
       <c r="R92" t="n">
-        <v>2122.3</v>
+        <v>2191.5</v>
       </c>
       <c r="S92" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1.5</v>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="T92"/>
       <c r="U92" t="n">
-        <v>56.6</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="93">
@@ -5558,10 +5550,10 @@
         <v>23</v>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
@@ -5574,25 +5566,15 @@
       </c>
       <c r="M93"/>
       <c r="N93"/>
-      <c r="O93" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="P93" t="n">
-        <v>42.65</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>64.17</v>
-      </c>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
       <c r="R93" t="n">
-        <v>2191.5</v>
-      </c>
-      <c r="S93" t="n">
-        <v>11.4</v>
-      </c>
+        <v>2517.7</v>
+      </c>
+      <c r="S93"/>
       <c r="T93"/>
-      <c r="U93" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="U93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -5605,37 +5587,55 @@
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
-      <c r="J94"/>
+      <c r="J94" t="n">
+        <v>8</v>
+      </c>
       <c r="K94" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L94" t="s">
         <v>25</v>
       </c>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
+      <c r="M94" t="n">
+        <v>34</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O94" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="P94" t="n">
+        <v>43.92</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>65.11</v>
+      </c>
       <c r="R94" t="n">
-        <v>2517.7</v>
-      </c>
-      <c r="S94"/>
-      <c r="T94"/>
-      <c r="U94"/>
+        <v>1920.7</v>
+      </c>
+      <c r="S94" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U94" t="n">
+        <v>55.7</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -5654,15 +5654,15 @@
         <v>24</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K95" t="s">
         <v>31</v>
@@ -5671,31 +5671,25 @@
         <v>25</v>
       </c>
       <c r="M95" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N95" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O95" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="P95" t="n">
-        <v>43.92</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>65.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
       <c r="R95" t="n">
-        <v>1920.7</v>
+        <v>1726.2</v>
       </c>
       <c r="S95" t="n">
-        <v>15.2</v>
+        <v>14</v>
       </c>
       <c r="T95" t="n">
         <v>1.5</v>
       </c>
       <c r="U95" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="96">
@@ -5715,42 +5709,40 @@
         <v>24</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
-      <c r="J96" t="n">
-        <v>6</v>
-      </c>
+      <c r="J96"/>
       <c r="K96" t="s">
         <v>31</v>
       </c>
       <c r="L96" t="s">
         <v>25</v>
       </c>
-      <c r="M96" t="n">
-        <v>36</v>
-      </c>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
-      <c r="O96"/>
-      <c r="P96"/>
-      <c r="Q96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="P96" t="n">
+        <v>44.21</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>65.39</v>
+      </c>
       <c r="R96" t="n">
-        <v>1726.2</v>
+        <v>2009</v>
       </c>
       <c r="S96" t="n">
-        <v>14</v>
-      </c>
-      <c r="T96" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.9</v>
+      </c>
+      <c r="T96"/>
       <c r="U96" t="n">
-        <v>55.9</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="97">
@@ -5770,10 +5762,10 @@
         <v>24</v>
       </c>
       <c r="F97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
@@ -5786,25 +5778,15 @@
       </c>
       <c r="M97"/>
       <c r="N97"/>
-      <c r="O97" t="n">
-        <v>21.18</v>
-      </c>
-      <c r="P97" t="n">
-        <v>44.21</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>65.39</v>
-      </c>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
       <c r="R97" t="n">
-        <v>2009</v>
-      </c>
-      <c r="S97" t="n">
-        <v>13.9</v>
-      </c>
+        <v>2234</v>
+      </c>
+      <c r="S97"/>
       <c r="T97"/>
-      <c r="U97" t="n">
-        <v>56.2</v>
-      </c>
+      <c r="U97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -5817,37 +5799,55 @@
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E98" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
-      <c r="J98"/>
+      <c r="J98" t="n">
+        <v>4</v>
+      </c>
       <c r="K98" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L98" t="s">
         <v>25</v>
       </c>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
+      <c r="M98" t="n">
+        <v>30</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="P98" t="n">
+        <v>42.88</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>64.31</v>
+      </c>
       <c r="R98" t="n">
-        <v>2234</v>
-      </c>
-      <c r="S98"/>
-      <c r="T98"/>
-      <c r="U98"/>
+        <v>2279.7</v>
+      </c>
+      <c r="S98" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2</v>
+      </c>
+      <c r="U98" t="n">
+        <v>56.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -5866,10 +5866,10 @@
         <v>25</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
@@ -5889,25 +5889,25 @@
         <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>21.43</v>
+        <v>21.77</v>
       </c>
       <c r="P99" t="n">
-        <v>42.88</v>
+        <v>43.09</v>
       </c>
       <c r="Q99" t="n">
-        <v>64.31</v>
+        <v>64.86</v>
       </c>
       <c r="R99" t="n">
-        <v>2279.7</v>
+        <v>2028.6</v>
       </c>
       <c r="S99" t="n">
-        <v>13.3</v>
+        <v>11.4</v>
       </c>
       <c r="T99" t="n">
         <v>2</v>
       </c>
       <c r="U99" t="n">
-        <v>56.4</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="100">
@@ -5927,48 +5927,40 @@
         <v>25</v>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
-      <c r="J100" t="n">
-        <v>4</v>
-      </c>
+      <c r="J100"/>
       <c r="K100" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="s">
         <v>25</v>
       </c>
-      <c r="M100" t="n">
-        <v>30</v>
-      </c>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
+      <c r="M100"/>
+      <c r="N100"/>
       <c r="O100" t="n">
-        <v>21.77</v>
+        <v>21.14</v>
       </c>
       <c r="P100" t="n">
-        <v>43.09</v>
+        <v>42.58</v>
       </c>
       <c r="Q100" t="n">
-        <v>64.86</v>
+        <v>63.72</v>
       </c>
       <c r="R100" t="n">
-        <v>2028.6</v>
+        <v>1797.5</v>
       </c>
       <c r="S100" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="T100" t="n">
-        <v>2</v>
-      </c>
+        <v>11.3</v>
+      </c>
+      <c r="T100"/>
       <c r="U100" t="n">
-        <v>58.3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101">
@@ -5988,10 +5980,10 @@
         <v>25</v>
       </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G101" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
@@ -6004,68 +5996,15 @@
       </c>
       <c r="M101"/>
       <c r="N101"/>
-      <c r="O101" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="P101" t="n">
-        <v>42.58</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>63.72</v>
-      </c>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
       <c r="R101" t="n">
-        <v>1797.5</v>
-      </c>
-      <c r="S101" t="n">
-        <v>11.3</v>
-      </c>
+        <v>2036.3</v>
+      </c>
+      <c r="S101"/>
       <c r="T101"/>
-      <c r="U101" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" t="s">
-        <v>22</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D102" t="s">
-        <v>53</v>
-      </c>
-      <c r="E102" t="n">
-        <v>25</v>
-      </c>
-      <c r="F102" t="n">
-        <v>4</v>
-      </c>
-      <c r="G102" t="n">
-        <v>79</v>
-      </c>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102" t="s">
-        <v>24</v>
-      </c>
-      <c r="L102" t="s">
-        <v>25</v>
-      </c>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="O102"/>
-      <c r="P102"/>
-      <c r="Q102"/>
-      <c r="R102" t="n">
-        <v>2036.3</v>
-      </c>
-      <c r="S102"/>
-      <c r="T102"/>
-      <c r="U102"/>
+      <c r="U101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
